--- a/提成.xlsx
+++ b/提成.xlsx
@@ -16,8 +16,7 @@
     <sheet name="2018-12-07" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="2018-12-08" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="2018-12-09" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2018-11-29" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="月汇总" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="月汇总" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>名字</t>
   </si>
@@ -195,34 +194,7 @@
     <t>黄凇</t>
   </si>
   <si>
-    <t>2018-12-01</t>
-  </si>
-  <si>
-    <t>2018-12-02</t>
-  </si>
-  <si>
-    <t>2018-12-03</t>
-  </si>
-  <si>
-    <t>2018-12-04</t>
-  </si>
-  <si>
-    <t>2018-12-05</t>
-  </si>
-  <si>
-    <t>2018-12-06</t>
-  </si>
-  <si>
-    <t>2018-12-07</t>
-  </si>
-  <si>
-    <t>2018-12-08</t>
-  </si>
-  <si>
-    <t>2018-12-09</t>
-  </si>
-  <si>
-    <t>2018-11-29</t>
+    <t>月总计</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2572,60 +2544,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -2633,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1533.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1467.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1424.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1597.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2691.2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2654,2252 +2614,247 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1533.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1467.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1424.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1597.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2691.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="F3" t="n">
-        <v>956</v>
+        <v>691.2</v>
       </c>
       <c r="G3" t="n">
-        <v>691.2</v>
+        <v>1058.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1058.4</v>
+        <v>756</v>
       </c>
       <c r="I3" t="n">
-        <v>756</v>
+        <v>971.9999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>971.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4433.599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="F4" t="n">
-        <v>704</v>
+        <v>928.8</v>
       </c>
       <c r="G4" t="n">
-        <v>928.8</v>
+        <v>891.2</v>
       </c>
       <c r="H4" t="n">
-        <v>891.2</v>
+        <v>1020.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1020.8</v>
+        <v>2340.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2340.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5885.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="F5" t="n">
-        <v>230</v>
+        <v>1125</v>
       </c>
       <c r="G5" t="n">
-        <v>1125</v>
+        <v>604.8</v>
       </c>
       <c r="H5" t="n">
-        <v>604.8</v>
+        <v>302.4</v>
       </c>
       <c r="I5" t="n">
-        <v>302.4</v>
+        <v>193.2</v>
       </c>
       <c r="J5" t="n">
-        <v>193.2</v>
+        <v>778.2</v>
       </c>
       <c r="K5" t="n">
-        <v>778.2</v>
+        <v>151.2</v>
       </c>
       <c r="L5" t="n">
-        <v>151.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3384.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="F6" t="n">
-        <v>1085</v>
+        <v>1125</v>
       </c>
       <c r="G6" t="n">
-        <v>1125</v>
+        <v>2193</v>
       </c>
       <c r="H6" t="n">
-        <v>2193</v>
+        <v>1383.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1383.6</v>
+        <v>1047</v>
       </c>
       <c r="J6" t="n">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6833.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="F7" t="n">
-        <v>864</v>
+        <v>1468.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1468.8</v>
+        <v>2073.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2073.6</v>
+        <v>1425.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1425.6</v>
+        <v>1965.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1965.6</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7797.599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>557.1999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>557.1999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>604.8</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>604.8</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>604.8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1766.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
@@ -4907,204 +2862,189 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1355.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1355.2</v>
+        <v>3248</v>
       </c>
       <c r="H9" t="n">
-        <v>3248</v>
+        <v>446</v>
       </c>
       <c r="I9" t="n">
-        <v>446</v>
+        <v>230</v>
       </c>
       <c r="J9" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5279.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
+      <c r="C10" t="n">
+        <v>235.2</v>
+      </c>
       <c r="D10" t="n">
-        <v>235.2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>604.8</v>
       </c>
       <c r="F10" t="n">
-        <v>604.8</v>
+        <v>2841.6</v>
       </c>
       <c r="G10" t="n">
-        <v>2841.6</v>
+        <v>302.4</v>
       </c>
       <c r="H10" t="n">
-        <v>302.4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J10" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3168.8</v>
       </c>
       <c r="F11" t="n">
-        <v>3168.8</v>
+        <v>258</v>
       </c>
       <c r="G11" t="n">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="H11" t="n">
-        <v>230</v>
+        <v>1814.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1814.4</v>
+        <v>950.4</v>
       </c>
       <c r="J11" t="n">
-        <v>950.4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6421.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1249.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1249.2</v>
+        <v>1144.8</v>
       </c>
       <c r="G12" t="n">
-        <v>1144.8</v>
+        <v>2005.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2005.2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4790.799999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>4790.799999999999</v>
+        <v>151.2</v>
       </c>
       <c r="K12" t="n">
-        <v>151.2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9341.199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>453.6</v>
       </c>
       <c r="F13" t="n">
+        <v>460</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1312</v>
+      </c>
+      <c r="H13" t="n">
         <v>453.6</v>
       </c>
-      <c r="G13" t="n">
-        <v>460</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1312</v>
-      </c>
       <c r="I13" t="n">
-        <v>453.6</v>
+        <v>151.2</v>
       </c>
       <c r="J13" t="n">
-        <v>151.2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2830.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
@@ -5112,98 +3052,92 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>993.5999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>993.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>992.4</v>
       </c>
       <c r="I14" t="n">
-        <v>992.4</v>
+        <v>869.5999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>869.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2855.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>453.6</v>
       </c>
       <c r="F15" t="n">
-        <v>453.6</v>
+        <v>907.1999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>907.1999999999999</v>
+        <v>1437</v>
       </c>
       <c r="H15" t="n">
-        <v>1437</v>
+        <v>1728</v>
       </c>
       <c r="I15" t="n">
-        <v>1728</v>
+        <v>207.2</v>
       </c>
       <c r="J15" t="n">
-        <v>207.2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>495.6</v>
       </c>
       <c r="F16" t="n">
-        <v>495.6</v>
+        <v>216</v>
       </c>
       <c r="G16" t="n">
-        <v>216</v>
+        <v>1437</v>
       </c>
       <c r="H16" t="n">
-        <v>1437</v>
+        <v>302.4</v>
       </c>
       <c r="I16" t="n">
-        <v>302.4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -5212,63 +3146,57 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>151.2</v>
       </c>
       <c r="F17" t="n">
-        <v>151.2</v>
+        <v>453.6</v>
       </c>
       <c r="G17" t="n">
-        <v>453.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="I17" t="n">
-        <v>1254</v>
+        <v>194.4</v>
       </c>
       <c r="J17" t="n">
-        <v>194.4</v>
+        <v>64.8</v>
       </c>
       <c r="K17" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
@@ -5276,139 +3204,130 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>604.8</v>
       </c>
       <c r="G18" t="n">
-        <v>604.8</v>
+        <v>283.2</v>
       </c>
       <c r="H18" t="n">
-        <v>283.2</v>
+        <v>151.2</v>
       </c>
       <c r="I18" t="n">
-        <v>151.2</v>
+        <v>939</v>
       </c>
       <c r="J18" t="n">
-        <v>939</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1978.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>230.4</v>
       </c>
       <c r="E19" t="n">
-        <v>230.4</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="G19" t="n">
-        <v>1125</v>
+        <v>302.4</v>
       </c>
       <c r="H19" t="n">
-        <v>302.4</v>
+        <v>1209.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1209.6</v>
+        <v>453.6</v>
       </c>
       <c r="J19" t="n">
-        <v>453.6</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>453.6</v>
       </c>
       <c r="F20" t="n">
-        <v>453.6</v>
+        <v>812</v>
       </c>
       <c r="G20" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>734.4</v>
       </c>
       <c r="I20" t="n">
-        <v>734.4</v>
+        <v>1864.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1864.8</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3864.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>570.5</v>
       </c>
       <c r="F21" t="n">
-        <v>570.5</v>
+        <v>598.5</v>
       </c>
       <c r="G21" t="n">
-        <v>598.5</v>
+        <v>535.5</v>
       </c>
       <c r="H21" t="n">
-        <v>535.5</v>
+        <v>1254</v>
       </c>
       <c r="I21" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -5417,145 +3336,133 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2958.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="F22" t="n">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>274.4</v>
       </c>
       <c r="H22" t="n">
-        <v>274.4</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>78.40000000000001</v>
+        <v>210</v>
       </c>
       <c r="J22" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1647.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="F23" t="n">
-        <v>1085</v>
+        <v>1114.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1114.4</v>
+        <v>756</v>
       </c>
       <c r="H23" t="n">
-        <v>756</v>
+        <v>129.6</v>
       </c>
       <c r="I23" t="n">
-        <v>129.6</v>
+        <v>993</v>
       </c>
       <c r="J23" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>37</v>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>453.6</v>
       </c>
       <c r="F24" t="n">
-        <v>453.6</v>
+        <v>216</v>
       </c>
       <c r="G24" t="n">
-        <v>216</v>
+        <v>151.2</v>
       </c>
       <c r="H24" t="n">
-        <v>151.2</v>
+        <v>777.5999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>777.5999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1663.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
@@ -5563,40 +3470,37 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="G25" t="n">
-        <v>216</v>
+        <v>129.6</v>
       </c>
       <c r="H25" t="n">
-        <v>129.6</v>
+        <v>1254</v>
       </c>
       <c r="I25" t="n">
-        <v>1254</v>
+        <v>453.6</v>
       </c>
       <c r="J25" t="n">
-        <v>453.6</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2053.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -5624,20 +3528,17 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
@@ -5665,20 +3566,17 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
@@ -5686,450 +3584,417 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>194.4</v>
       </c>
       <c r="G28" t="n">
-        <v>194.4</v>
+        <v>423.9</v>
       </c>
       <c r="H28" t="n">
-        <v>423.9</v>
+        <v>64.8</v>
       </c>
       <c r="I28" t="n">
-        <v>64.8</v>
+        <v>996</v>
       </c>
       <c r="J28" t="n">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1679.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
+      <c r="C29" t="n">
+        <v>100.8</v>
+      </c>
       <c r="D29" t="n">
-        <v>100.8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>388.8</v>
       </c>
       <c r="G29" t="n">
+        <v>453.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>388.8</v>
       </c>
-      <c r="H29" t="n">
-        <v>453.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>388.8</v>
+        <v>427.8</v>
       </c>
       <c r="K29" t="n">
-        <v>427.8</v>
+        <v>64.8</v>
       </c>
       <c r="L29" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1824.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>64.8</v>
       </c>
       <c r="F30" t="n">
-        <v>64.8</v>
+        <v>259.2</v>
       </c>
       <c r="G30" t="n">
         <v>259.2</v>
       </c>
       <c r="H30" t="n">
-        <v>259.2</v>
+        <v>82.8</v>
       </c>
       <c r="I30" t="n">
-        <v>82.8</v>
+        <v>194.4</v>
       </c>
       <c r="J30" t="n">
-        <v>194.4</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>860.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>259.2</v>
       </c>
       <c r="F31" t="n">
-        <v>259.2</v>
+        <v>277.2</v>
       </c>
       <c r="G31" t="n">
-        <v>277.2</v>
+        <v>453.6</v>
       </c>
       <c r="H31" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="I31" t="n">
         <v>453.6</v>
       </c>
-      <c r="I31" t="n">
-        <v>388.8</v>
-      </c>
       <c r="J31" t="n">
-        <v>453.6</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1832.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>147.6</v>
       </c>
       <c r="F32" t="n">
-        <v>147.6</v>
+        <v>259.2</v>
       </c>
       <c r="G32" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>259.2</v>
       </c>
-      <c r="H32" t="n">
-        <v>82.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>194.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>207.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1150.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>325.5</v>
       </c>
       <c r="F33" t="n">
-        <v>325.5</v>
+        <v>337.5</v>
       </c>
       <c r="G33" t="n">
-        <v>337.5</v>
+        <v>324</v>
       </c>
       <c r="H33" t="n">
-        <v>324</v>
+        <v>388.8</v>
       </c>
       <c r="I33" t="n">
-        <v>388.8</v>
+        <v>24</v>
       </c>
       <c r="J33" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1399.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>47</v>
       </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>106.8</v>
       </c>
       <c r="F34" t="n">
-        <v>106.8</v>
+        <v>129.6</v>
       </c>
       <c r="G34" t="n">
+        <v>72</v>
+      </c>
+      <c r="H34" t="n">
         <v>129.6</v>
       </c>
-      <c r="H34" t="n">
-        <v>72</v>
-      </c>
       <c r="I34" t="n">
-        <v>129.6</v>
+        <v>64.8</v>
       </c>
       <c r="J34" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>502.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F35" t="n">
-        <v>324</v>
+        <v>388.8</v>
       </c>
       <c r="G35" t="n">
-        <v>388.8</v>
+        <v>183.6</v>
       </c>
       <c r="H35" t="n">
-        <v>183.6</v>
+        <v>129.6</v>
       </c>
       <c r="I35" t="n">
-        <v>129.6</v>
+        <v>259.2</v>
       </c>
       <c r="J35" t="n">
-        <v>259.2</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1285.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F36" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>453.6</v>
       </c>
       <c r="H36" t="n">
-        <v>453.6</v>
+        <v>259.2</v>
       </c>
       <c r="I36" t="n">
-        <v>259.2</v>
+        <v>471.6</v>
       </c>
       <c r="J36" t="n">
-        <v>471.6</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1508.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>277.2</v>
       </c>
       <c r="F37" t="n">
-        <v>277.2</v>
+        <v>259.2</v>
       </c>
       <c r="G37" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>259.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>388.8</v>
-      </c>
       <c r="I37" t="n">
-        <v>259.2</v>
+        <v>64.8</v>
       </c>
       <c r="J37" t="n">
-        <v>64.8</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1249.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="F38" t="n">
-        <v>129.6</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>194.4</v>
       </c>
       <c r="H38" t="n">
         <v>194.4</v>
       </c>
       <c r="I38" t="n">
-        <v>194.4</v>
+        <v>453.6</v>
       </c>
       <c r="J38" t="n">
-        <v>453.6</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>52</v>
       </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
@@ -6157,20 +4022,17 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
@@ -6198,20 +4060,17 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -6239,20 +4098,17 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
@@ -6278,9 +4134,6 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
         <v>0</v>
       </c>
     </row>
